--- a/Validation/produced_at_night.xlsx
+++ b/Validation/produced_at_night.xlsx
@@ -487,7 +487,7 @@
         <v>-0.0209</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02090000000001012</v>
+        <v>0.02090000000000001</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>-0.2676579583333205</v>
       </c>
       <c r="D4" t="n">
-        <v>3.966457458333411</v>
+        <v>3.966457458332929</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>-9.637505166672563</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.458893333334764</v>
+        <v>-1.458893333333664</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -541,10 +541,10 @@
         <v>-0.03316499999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5590199999998064</v>
+        <v>-0.5590199999996347</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5590199999996707</v>
+        <v>0.5590199999991354</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -560,10 +560,10 @@
         <v>-1.514662669842307</v>
       </c>
       <c r="C7" t="n">
-        <v>-9.74767383332737</v>
+        <v>-9.74767383333292</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.348724666667121</v>
+        <v>-1.348724666666717</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>

--- a/Validation/produced_at_night.xlsx
+++ b/Validation/produced_at_night.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Nitrate_c_Day_sp_exchange</t>
+          <t>Nitrate_c_Night_sp_exchange</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -477,17 +477,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>L-Valine_Day_sp_exchange</t>
+          <t>L-Valine_Night_sp_exchange</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>-0.02090000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0209</v>
+        <v>-0.02090000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02090000000000001</v>
+        <v>0.02090000000001012</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -496,17 +496,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>L-Proline_Day_sp_exchange</t>
+          <t>L-Proline_Night_sp_exchange</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>-0.00055</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2676579583333205</v>
+        <v>-0.2676579583333158</v>
       </c>
       <c r="D4" t="n">
-        <v>3.966457458332929</v>
+        <v>3.966457458332928</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -515,14 +515,14 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>L-Alanine_c_Day_sp_exchange</t>
+          <t>L-Alanine_c_Night_sp_exchange</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>-1.540704680953203</v>
       </c>
       <c r="C5" t="n">
-        <v>-9.637505166672563</v>
+        <v>-9.637505166672561</v>
       </c>
       <c r="D5" t="n">
         <v>-1.458893333333664</v>
@@ -534,17 +534,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>D-Fructose_Day_sp_exchange</t>
+          <t>D-Fructose_Night_sp_exchange</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>-0.03316499999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5590199999996347</v>
+        <v>-0.5590199999950832</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5590199999991354</v>
+        <v>0.5590200000001522</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -553,17 +553,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Citrate_c_Day_sp_exchange</t>
+          <t>Citrate_c_Night_sp_exchange</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>-1.514662669842307</v>
       </c>
       <c r="C7" t="n">
-        <v>-9.74767383333292</v>
+        <v>-9.747673833332518</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.348724666666717</v>
+        <v>-1.348724666666926</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>

--- a/Validation/produced_at_night.xlsx
+++ b/Validation/produced_at_night.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Nitrate_c_Night_sp_exchange</t>
+          <t>Nitrate_c_Day_sp_exchange</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -477,17 +477,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>L-Valine_Night_sp_exchange</t>
+          <t>L-Valine_Day_sp_exchange</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>-0.02090000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.02090000000000001</v>
+        <v>-0.0209</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02090000000001012</v>
+        <v>0.02090000000000001</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -496,17 +496,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>L-Proline_Night_sp_exchange</t>
+          <t>L-Proline_Day_sp_exchange</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>-0.00055</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2676579583333158</v>
+        <v>-0.2676579583333205</v>
       </c>
       <c r="D4" t="n">
-        <v>3.966457458332928</v>
+        <v>3.966457458332929</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -515,14 +515,14 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>L-Alanine_c_Night_sp_exchange</t>
+          <t>L-Alanine_c_Day_sp_exchange</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>-1.540704680953203</v>
       </c>
       <c r="C5" t="n">
-        <v>-9.637505166672561</v>
+        <v>-9.637505166672563</v>
       </c>
       <c r="D5" t="n">
         <v>-1.458893333333664</v>
@@ -534,17 +534,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>D-Fructose_Night_sp_exchange</t>
+          <t>D-Fructose_Day_sp_exchange</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>-0.03316499999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5590199999950832</v>
+        <v>-0.5590200000007991</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5590200000001522</v>
+        <v>0.5590199999991354</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -553,17 +553,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Citrate_c_Night_sp_exchange</t>
+          <t>Citrate_c_Day_sp_exchange</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>-1.514662669842307</v>
       </c>
       <c r="C7" t="n">
-        <v>-9.747673833332518</v>
+        <v>-9.747673833332311</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.348724666666926</v>
+        <v>-1.348724666666717</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>

--- a/Validation/produced_at_night.xlsx
+++ b/Validation/produced_at_night.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,32 +462,32 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1375282857142913</v>
+        <v>-0.1375282857142897</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1401839999999904</v>
+        <v>-0.1401839999999958</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2102759999999757</v>
+        <v>-0.04086264285727192</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>L-Valine_Day_sp_exchange</t>
+          <t>Glycine_c_Day_sp_exchange</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.02090000000000001</v>
+        <v>-0.01872200000000451</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0209</v>
+        <v>-0.01872200000005061</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02090000000000001</v>
+        <v>0.01872200000006762</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -496,76 +496,57 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>L-Proline_Day_sp_exchange</t>
+          <t>L-Alanine_c_Day_sp_exchange</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.00055</v>
+        <v>-1.633878365080086</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2676579583333205</v>
+        <v>-3.725505666661419</v>
       </c>
       <c r="D4" t="n">
-        <v>3.966457458332929</v>
+        <v>-1.438243583334033</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>L-Alanine_c_Day_sp_exchange</t>
+          <t>D-Fructose_Day_sp_exchange</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.540704680953203</v>
+        <v>-0.03316499999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-9.637505166672563</v>
+        <v>-0.5590199999996274</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.458893333333664</v>
+        <v>0.5590200000006319</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>D-Fructose_Day_sp_exchange</t>
+          <t>Citrate_c_Day_sp_exchange</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.03316499999999999</v>
+        <v>-1.388793301588703</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5590200000007991</v>
+        <v>-7.734369499997845</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5590199999991354</v>
+        <v>-1.345983222222662</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Citrate_c_Day_sp_exchange</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>-1.514662669842307</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-9.747673833332311</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-1.348724666666717</v>
-      </c>
-      <c r="E7" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Validation/produced_at_night.xlsx
+++ b/Validation/produced_at_night.xlsx
@@ -484,7 +484,7 @@
         <v>-0.01872200000000451</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01872200000005061</v>
+        <v>-0.01872199999989857</v>
       </c>
       <c r="D3" t="n">
         <v>0.01872200000006762</v>
@@ -506,7 +506,7 @@
         <v>-3.725505666661419</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.438243583334033</v>
+        <v>-1.438243583333443</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -525,7 +525,7 @@
         <v>-0.5590199999996274</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5590200000006319</v>
+        <v>0.5590200000000376</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>-1.388793301588703</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.734369499997845</v>
+        <v>-7.734369500011056</v>
       </c>
       <c r="D6" t="n">
         <v>-1.345983222222662</v>
